--- a/TELPA/TELPA/ClientApp/src/app/calendar/data/CalendarData.xlsx
+++ b/TELPA/TELPA/ClientApp/src/app/calendar/data/CalendarData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\telpa\TELPA\TELPA\ClientApp\src\app\calendar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CA10B01-A0D5-4F48-A4D9-2CB5DC111C82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B248D-7846-48B0-9393-6E48191213B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="2925" windowWidth="21600" windowHeight="11385" xr2:uid="{6A9D669C-0675-4E51-BFD4-2039B4839FF7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9D669C-0675-4E51-BFD4-2039B4839FF7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,10 +450,15 @@
   <dimension ref="A1:AA32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="W2" sqref="W2:W32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="25.85546875" customWidth="1"/>
+    <col min="18" max="18" width="28.28515625" customWidth="1"/>
+    <col min="27" max="27" width="25" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -504,8 +509,8 @@
         <v>1</v>
       </c>
       <c r="E2" t="str">
-        <f>"{month_id:" &amp; A2 &amp; ", year:""" &amp;B2&amp;""", day:" &amp; C2 &amp; ", week_id:" &amp; D2 &amp; "},"</f>
-        <v>{month_id:1, year:"2020", day:1, week_id:1},</v>
+        <f>"{month_id:" &amp; A2 &amp; ", year:""" &amp;B2&amp;""", day:" &amp; C2 &amp; ", week_id:" &amp; D2 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:1, year:"2020", day:1, week_id:1, "last_month": false},</v>
       </c>
       <c r="J2">
         <v>2</v>
@@ -520,8 +525,8 @@
         <v>1</v>
       </c>
       <c r="N2" t="str">
-        <f>"{month_id:" &amp; J2 &amp; ", year:""" &amp;K2&amp;""", day:" &amp; L2 &amp; ", week_id:" &amp; M2 &amp; "},"</f>
-        <v>{month_id:2, year:"2020", day:1, week_id:1},</v>
+        <f>"{month_id:" &amp; J2 &amp; ", year:""" &amp;K2&amp;""", day:" &amp; L2 &amp; ", week_id:" &amp; M2 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:2, year:"2020", day:1, week_id:1, "last_month": false},</v>
       </c>
       <c r="S2">
         <v>3</v>
@@ -536,8 +541,8 @@
         <v>1</v>
       </c>
       <c r="W2" t="str">
-        <f>"{month_id:" &amp; S2 &amp; ", year:""" &amp;T2&amp;""", day:" &amp; U2 &amp; ", week_id:" &amp; V2 &amp; "},"</f>
-        <v>{month_id:3, year:"2020", day:1, week_id:1},</v>
+        <f>"{month_id:" &amp; S2 &amp; ", year:""" &amp;T2&amp;""", day:" &amp; U2 &amp; ", week_id:" &amp; V2 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:3, year:"2020", day:1, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
@@ -554,8 +559,8 @@
         <v>1</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E32" si="0">"{month_id:" &amp; A3 &amp; ", year:""" &amp;B3&amp;""", day:" &amp; C3 &amp; ", week_id:" &amp; D3 &amp; "},"</f>
-        <v>{month_id:1, year:"2020", day:2, week_id:1},</v>
+        <f t="shared" ref="E3:E32" si="0">"{month_id:" &amp; A3 &amp; ", year:""" &amp;B3&amp;""", day:" &amp; C3 &amp; ", week_id:" &amp; D3 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:1, year:"2020", day:2, week_id:1, "last_month": false},</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -570,8 +575,8 @@
         <v>2</v>
       </c>
       <c r="N3" t="str">
-        <f t="shared" ref="N3:N30" si="1">"{month_id:" &amp; J3 &amp; ", year:""" &amp;K3&amp;""", day:" &amp; L3 &amp; ", week_id:" &amp; M3 &amp; "},"</f>
-        <v>{month_id:2, year:"2020", day:2, week_id:2},</v>
+        <f t="shared" ref="N3:N30" si="1">"{month_id:" &amp; J3 &amp; ", year:""" &amp;K3&amp;""", day:" &amp; L3 &amp; ", week_id:" &amp; M3 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:2, year:"2020", day:2, week_id:2, "last_month": false},</v>
       </c>
       <c r="S3">
         <v>3</v>
@@ -586,8 +591,8 @@
         <v>1</v>
       </c>
       <c r="W3" t="str">
-        <f t="shared" ref="W3:W32" si="2">"{month_id:" &amp; S3 &amp; ", year:""" &amp;T3&amp;""", day:" &amp; U3 &amp; ", week_id:" &amp; V3 &amp; "},"</f>
-        <v>{month_id:3, year:"2020", day:2, week_id:1},</v>
+        <f t="shared" ref="W3:W32" si="2">"{month_id:" &amp; S3 &amp; ", year:""" &amp;T3&amp;""", day:" &amp; U3 &amp; ", week_id:" &amp; V3 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:3, year:"2020", day:2, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
@@ -605,7 +610,7 @@
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:3, week_id:1},</v>
+        <v>{month_id:1, year:"2020", day:3, week_id:1, "last_month": false},</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -621,7 +626,7 @@
       </c>
       <c r="N4" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:3, week_id:2},</v>
+        <v>{month_id:2, year:"2020", day:3, week_id:2, "last_month": false},</v>
       </c>
       <c r="S4">
         <v>3</v>
@@ -637,7 +642,7 @@
       </c>
       <c r="W4" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:3, week_id:1},</v>
+        <v>{month_id:3, year:"2020", day:3, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
@@ -655,7 +660,7 @@
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:4, week_id:1},</v>
+        <v>{month_id:1, year:"2020", day:4, week_id:1, "last_month": false},</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -671,7 +676,7 @@
       </c>
       <c r="N5" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:4, week_id:2},</v>
+        <v>{month_id:2, year:"2020", day:4, week_id:2, "last_month": false},</v>
       </c>
       <c r="S5">
         <v>3</v>
@@ -687,7 +692,7 @@
       </c>
       <c r="W5" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:4, week_id:1},</v>
+        <v>{month_id:3, year:"2020", day:4, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
@@ -705,7 +710,7 @@
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:5, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:5, week_id:2, "last_month": false},</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -721,7 +726,7 @@
       </c>
       <c r="N6" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:5, week_id:2},</v>
+        <v>{month_id:2, year:"2020", day:5, week_id:2, "last_month": false},</v>
       </c>
       <c r="S6">
         <v>3</v>
@@ -737,7 +742,7 @@
       </c>
       <c r="W6" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:5, week_id:1},</v>
+        <v>{month_id:3, year:"2020", day:5, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
@@ -755,7 +760,7 @@
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:6, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:6, week_id:2, "last_month": false},</v>
       </c>
       <c r="J7">
         <v>2</v>
@@ -771,7 +776,7 @@
       </c>
       <c r="N7" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:6, week_id:2},</v>
+        <v>{month_id:2, year:"2020", day:6, week_id:2, "last_month": false},</v>
       </c>
       <c r="S7">
         <v>3</v>
@@ -787,7 +792,7 @@
       </c>
       <c r="W7" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:6, week_id:1},</v>
+        <v>{month_id:3, year:"2020", day:6, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
@@ -805,7 +810,7 @@
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:7, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:7, week_id:2, "last_month": false},</v>
       </c>
       <c r="J8">
         <v>2</v>
@@ -821,7 +826,7 @@
       </c>
       <c r="N8" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:7, week_id:2},</v>
+        <v>{month_id:2, year:"2020", day:7, week_id:2, "last_month": false},</v>
       </c>
       <c r="S8">
         <v>3</v>
@@ -837,7 +842,7 @@
       </c>
       <c r="W8" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:7, week_id:1},</v>
+        <v>{month_id:3, year:"2020", day:7, week_id:1, "last_month": false},</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
@@ -855,7 +860,7 @@
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:8, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:8, week_id:2, "last_month": false},</v>
       </c>
       <c r="J9">
         <v>2</v>
@@ -871,7 +876,7 @@
       </c>
       <c r="N9" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:8, week_id:2},</v>
+        <v>{month_id:2, year:"2020", day:8, week_id:2, "last_month": false},</v>
       </c>
       <c r="S9">
         <v>3</v>
@@ -887,7 +892,7 @@
       </c>
       <c r="W9" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:8, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:8, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
@@ -905,7 +910,7 @@
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:9, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:9, week_id:2, "last_month": false},</v>
       </c>
       <c r="J10">
         <v>2</v>
@@ -921,7 +926,7 @@
       </c>
       <c r="N10" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:9, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:9, week_id:3, "last_month": false},</v>
       </c>
       <c r="S10">
         <v>3</v>
@@ -937,7 +942,7 @@
       </c>
       <c r="W10" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:9, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:9, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
@@ -955,7 +960,7 @@
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:10, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:10, week_id:2, "last_month": false},</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -971,7 +976,7 @@
       </c>
       <c r="N11" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:10, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:10, week_id:3, "last_month": false},</v>
       </c>
       <c r="S11">
         <v>3</v>
@@ -987,7 +992,7 @@
       </c>
       <c r="W11" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:10, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:10, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
@@ -1005,7 +1010,7 @@
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:11, week_id:2},</v>
+        <v>{month_id:1, year:"2020", day:11, week_id:2, "last_month": false},</v>
       </c>
       <c r="J12">
         <v>2</v>
@@ -1021,7 +1026,7 @@
       </c>
       <c r="N12" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:11, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:11, week_id:3, "last_month": false},</v>
       </c>
       <c r="S12">
         <v>3</v>
@@ -1037,7 +1042,7 @@
       </c>
       <c r="W12" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:11, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:11, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
@@ -1055,7 +1060,7 @@
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:12, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:12, week_id:3, "last_month": false},</v>
       </c>
       <c r="J13">
         <v>2</v>
@@ -1071,7 +1076,7 @@
       </c>
       <c r="N13" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:12, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:12, week_id:3, "last_month": false},</v>
       </c>
       <c r="S13">
         <v>3</v>
@@ -1087,7 +1092,7 @@
       </c>
       <c r="W13" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:12, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:12, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
@@ -1105,7 +1110,7 @@
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:13, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:13, week_id:3, "last_month": false},</v>
       </c>
       <c r="J14">
         <v>2</v>
@@ -1121,7 +1126,7 @@
       </c>
       <c r="N14" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:13, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:13, week_id:3, "last_month": false},</v>
       </c>
       <c r="S14">
         <v>3</v>
@@ -1137,7 +1142,7 @@
       </c>
       <c r="W14" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:13, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:13, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
@@ -1155,7 +1160,7 @@
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:14, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:14, week_id:3, "last_month": false},</v>
       </c>
       <c r="J15">
         <v>2</v>
@@ -1171,7 +1176,7 @@
       </c>
       <c r="N15" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:14, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:14, week_id:3, "last_month": false},</v>
       </c>
       <c r="S15">
         <v>3</v>
@@ -1187,7 +1192,7 @@
       </c>
       <c r="W15" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:14, week_id:2},</v>
+        <v>{month_id:3, year:"2020", day:14, week_id:2, "last_month": false},</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
@@ -1205,7 +1210,7 @@
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:15, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:15, week_id:3, "last_month": false},</v>
       </c>
       <c r="J16">
         <v>2</v>
@@ -1221,7 +1226,7 @@
       </c>
       <c r="N16" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:15, week_id:3},</v>
+        <v>{month_id:2, year:"2020", day:15, week_id:3, "last_month": false},</v>
       </c>
       <c r="S16">
         <v>3</v>
@@ -1237,7 +1242,7 @@
       </c>
       <c r="W16" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:15, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:15, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.25">
@@ -1255,7 +1260,7 @@
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:16, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:16, week_id:3, "last_month": false},</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1271,7 +1276,7 @@
       </c>
       <c r="N17" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:16, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:16, week_id:4, "last_month": false},</v>
       </c>
       <c r="S17">
         <v>3</v>
@@ -1287,7 +1292,7 @@
       </c>
       <c r="W17" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:16, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:16, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.25">
@@ -1305,7 +1310,7 @@
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:17, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:17, week_id:3, "last_month": false},</v>
       </c>
       <c r="J18">
         <v>2</v>
@@ -1321,7 +1326,7 @@
       </c>
       <c r="N18" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:17, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:17, week_id:4, "last_month": false},</v>
       </c>
       <c r="S18">
         <v>3</v>
@@ -1337,7 +1342,7 @@
       </c>
       <c r="W18" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:17, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:17, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.25">
@@ -1355,7 +1360,7 @@
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:18, week_id:3},</v>
+        <v>{month_id:1, year:"2020", day:18, week_id:3, "last_month": false},</v>
       </c>
       <c r="J19">
         <v>2</v>
@@ -1371,7 +1376,7 @@
       </c>
       <c r="N19" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:18, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:18, week_id:4, "last_month": false},</v>
       </c>
       <c r="S19">
         <v>3</v>
@@ -1387,7 +1392,7 @@
       </c>
       <c r="W19" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:18, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:18, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.25">
@@ -1405,7 +1410,7 @@
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:19, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:19, week_id:4, "last_month": false},</v>
       </c>
       <c r="J20">
         <v>2</v>
@@ -1421,7 +1426,7 @@
       </c>
       <c r="N20" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:19, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:19, week_id:4, "last_month": false},</v>
       </c>
       <c r="S20">
         <v>3</v>
@@ -1437,7 +1442,7 @@
       </c>
       <c r="W20" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:19, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:19, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.25">
@@ -1455,7 +1460,7 @@
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:20, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:20, week_id:4, "last_month": false},</v>
       </c>
       <c r="J21">
         <v>2</v>
@@ -1471,7 +1476,7 @@
       </c>
       <c r="N21" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:20, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:20, week_id:4, "last_month": false},</v>
       </c>
       <c r="S21">
         <v>3</v>
@@ -1487,7 +1492,7 @@
       </c>
       <c r="W21" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:20, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:20, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
@@ -1505,7 +1510,7 @@
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:21, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:21, week_id:4, "last_month": false},</v>
       </c>
       <c r="J22">
         <v>2</v>
@@ -1521,7 +1526,7 @@
       </c>
       <c r="N22" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:21, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:21, week_id:4, "last_month": false},</v>
       </c>
       <c r="S22">
         <v>3</v>
@@ -1537,7 +1542,7 @@
       </c>
       <c r="W22" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:21, week_id:3},</v>
+        <v>{month_id:3, year:"2020", day:21, week_id:3, "last_month": false},</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.25">
@@ -1555,7 +1560,7 @@
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:22, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:22, week_id:4, "last_month": false},</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -1571,7 +1576,7 @@
       </c>
       <c r="N23" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:22, week_id:4},</v>
+        <v>{month_id:2, year:"2020", day:22, week_id:4, "last_month": false},</v>
       </c>
       <c r="S23">
         <v>3</v>
@@ -1587,7 +1592,7 @@
       </c>
       <c r="W23" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:22, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:22, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
@@ -1605,7 +1610,7 @@
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:23, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:23, week_id:4, "last_month": false},</v>
       </c>
       <c r="J24">
         <v>2</v>
@@ -1621,7 +1626,7 @@
       </c>
       <c r="N24" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:23, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:23, week_id:5, "last_month": false},</v>
       </c>
       <c r="S24">
         <v>3</v>
@@ -1637,7 +1642,7 @@
       </c>
       <c r="W24" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:23, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:23, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="25" spans="1:23" x14ac:dyDescent="0.25">
@@ -1655,7 +1660,7 @@
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:24, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:24, week_id:4, "last_month": false},</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -1671,7 +1676,7 @@
       </c>
       <c r="N25" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:24, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:24, week_id:5, "last_month": false},</v>
       </c>
       <c r="S25">
         <v>3</v>
@@ -1687,7 +1692,7 @@
       </c>
       <c r="W25" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:24, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:24, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="26" spans="1:23" x14ac:dyDescent="0.25">
@@ -1705,7 +1710,7 @@
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:25, week_id:4},</v>
+        <v>{month_id:1, year:"2020", day:25, week_id:4, "last_month": false},</v>
       </c>
       <c r="J26">
         <v>2</v>
@@ -1721,7 +1726,7 @@
       </c>
       <c r="N26" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:25, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:25, week_id:5, "last_month": false},</v>
       </c>
       <c r="S26">
         <v>3</v>
@@ -1737,7 +1742,7 @@
       </c>
       <c r="W26" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:25, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:25, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="27" spans="1:23" x14ac:dyDescent="0.25">
@@ -1755,7 +1760,7 @@
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:26, week_id:5},</v>
+        <v>{month_id:1, year:"2020", day:26, week_id:5, "last_month": false},</v>
       </c>
       <c r="J27">
         <v>2</v>
@@ -1771,7 +1776,7 @@
       </c>
       <c r="N27" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:26, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:26, week_id:5, "last_month": false},</v>
       </c>
       <c r="S27">
         <v>3</v>
@@ -1787,7 +1792,7 @@
       </c>
       <c r="W27" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:26, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:26, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="28" spans="1:23" x14ac:dyDescent="0.25">
@@ -1805,7 +1810,7 @@
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:27, week_id:5},</v>
+        <v>{month_id:1, year:"2020", day:27, week_id:5, "last_month": false},</v>
       </c>
       <c r="J28">
         <v>2</v>
@@ -1821,7 +1826,7 @@
       </c>
       <c r="N28" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:27, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:27, week_id:5, "last_month": false},</v>
       </c>
       <c r="S28">
         <v>3</v>
@@ -1837,7 +1842,7 @@
       </c>
       <c r="W28" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:27, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:27, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="29" spans="1:23" x14ac:dyDescent="0.25">
@@ -1855,7 +1860,7 @@
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:28, week_id:5},</v>
+        <v>{month_id:1, year:"2020", day:28, week_id:5, "last_month": false},</v>
       </c>
       <c r="J29">
         <v>2</v>
@@ -1871,7 +1876,7 @@
       </c>
       <c r="N29" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:28, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:28, week_id:5, "last_month": false},</v>
       </c>
       <c r="S29">
         <v>3</v>
@@ -1887,7 +1892,7 @@
       </c>
       <c r="W29" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:28, week_id:4},</v>
+        <v>{month_id:3, year:"2020", day:28, week_id:4, "last_month": false},</v>
       </c>
     </row>
     <row r="30" spans="1:23" x14ac:dyDescent="0.25">
@@ -1905,7 +1910,7 @@
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:29, week_id:5},</v>
+        <v>{month_id:1, year:"2020", day:29, week_id:5, "last_month": false},</v>
       </c>
       <c r="J30">
         <v>2</v>
@@ -1921,7 +1926,7 @@
       </c>
       <c r="N30" t="str">
         <f t="shared" si="1"/>
-        <v>{month_id:2, year:"2020", day:29, week_id:5},</v>
+        <v>{month_id:2, year:"2020", day:29, week_id:5, "last_month": false},</v>
       </c>
       <c r="S30">
         <v>3</v>
@@ -1937,7 +1942,7 @@
       </c>
       <c r="W30" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:29, week_id:5},</v>
+        <v>{month_id:3, year:"2020", day:29, week_id:5, "last_month": false},</v>
       </c>
     </row>
     <row r="31" spans="1:23" x14ac:dyDescent="0.25">
@@ -1955,7 +1960,7 @@
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:30, week_id:5},</v>
+        <v>{month_id:1, year:"2020", day:30, week_id:5, "last_month": false},</v>
       </c>
       <c r="S31">
         <v>3</v>
@@ -1971,7 +1976,7 @@
       </c>
       <c r="W31" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:30, week_id:5},</v>
+        <v>{month_id:3, year:"2020", day:30, week_id:5, "last_month": false},</v>
       </c>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.25">
@@ -1989,7 +1994,7 @@
       </c>
       <c r="E32" t="str">
         <f t="shared" si="0"/>
-        <v>{month_id:1, year:"2020", day:31, week_id:5},</v>
+        <v>{month_id:1, year:"2020", day:31, week_id:5, "last_month": false},</v>
       </c>
       <c r="S32">
         <v>3</v>
@@ -2005,7 +2010,7 @@
       </c>
       <c r="W32" t="str">
         <f t="shared" si="2"/>
-        <v>{month_id:3, year:"2020", day:31, week_id:5},</v>
+        <v>{month_id:3, year:"2020", day:31, week_id:5, "last_month": false},</v>
       </c>
     </row>
   </sheetData>

--- a/TELPA/TELPA/ClientApp/src/app/calendar/data/CalendarData.xlsx
+++ b/TELPA/TELPA/ClientApp/src/app/calendar/data/CalendarData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulius\Desktop\telpa\TELPA\TELPA\ClientApp\src\app\calendar\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A6B248D-7846-48B0-9393-6E48191213B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A350C05-6A0D-48BD-A54F-4F9944BFAE61}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6A9D669C-0675-4E51-BFD4-2039B4839FF7}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>January</t>
   </si>
@@ -42,6 +42,15 @@
   </si>
   <si>
     <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>June</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFD6619F-FE39-4A1E-B905-2C7217C3F33D}">
-  <dimension ref="A1:AA32"/>
+  <dimension ref="A1:AK66"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2:W32"/>
+      <selection activeCell="AF2" sqref="AF2:AF31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -460,7 +469,7 @@
     <col min="27" max="27" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -494,8 +503,20 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
       <c r="AA1" s="3"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC1" s="2"/>
+      <c r="AD1" s="2"/>
+      <c r="AE1" s="2"/>
+      <c r="AF1" s="2"/>
+      <c r="AG1" s="2"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="3"/>
+    </row>
+    <row r="2" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -544,8 +565,24 @@
         <f>"{month_id:" &amp; S2 &amp; ", year:""" &amp;T2&amp;""", day:" &amp; U2 &amp; ", week_id:" &amp; V2 &amp; ", ""last_month"": false},"</f>
         <v>{month_id:3, year:"2020", day:1, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB2">
+        <v>4</v>
+      </c>
+      <c r="AC2">
+        <v>2020</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="str">
+        <f>"{month_id:" &amp; AB2 &amp; ", year:""" &amp;AC2&amp;""", day:" &amp; AD2 &amp; ", week_id:" &amp; AE2 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:4, year:"2020", day:1, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -594,8 +631,24 @@
         <f t="shared" ref="W3:W32" si="2">"{month_id:" &amp; S3 &amp; ", year:""" &amp;T3&amp;""", day:" &amp; U3 &amp; ", week_id:" &amp; V3 &amp; ", ""last_month"": false},"</f>
         <v>{month_id:3, year:"2020", day:2, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB3">
+        <v>4</v>
+      </c>
+      <c r="AC3">
+        <v>2020</v>
+      </c>
+      <c r="AD3">
+        <v>2</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3" t="str">
+        <f t="shared" ref="AF3:AF31" si="3">"{month_id:" &amp; AB3 &amp; ", year:""" &amp;AC3&amp;""", day:" &amp; AD3 &amp; ", week_id:" &amp; AE3 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:4, year:"2020", day:2, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -644,8 +697,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:3, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB4">
+        <v>4</v>
+      </c>
+      <c r="AC4">
+        <v>2020</v>
+      </c>
+      <c r="AD4">
+        <v>3</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:3, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -694,8 +763,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:4, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB5">
+        <v>4</v>
+      </c>
+      <c r="AC5">
+        <v>2020</v>
+      </c>
+      <c r="AD5">
+        <v>4</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:4, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -744,8 +829,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:5, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB6">
+        <v>4</v>
+      </c>
+      <c r="AC6">
+        <v>2020</v>
+      </c>
+      <c r="AD6">
+        <v>5</v>
+      </c>
+      <c r="AE6">
+        <v>2</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:5, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -794,8 +895,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:6, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB7">
+        <v>4</v>
+      </c>
+      <c r="AC7">
+        <v>2020</v>
+      </c>
+      <c r="AD7">
+        <v>6</v>
+      </c>
+      <c r="AE7">
+        <v>2</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:6, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -844,8 +961,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:7, week_id:1, "last_month": false},</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB8">
+        <v>4</v>
+      </c>
+      <c r="AC8">
+        <v>2020</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>2</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:7, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -894,8 +1027,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:8, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB9">
+        <v>4</v>
+      </c>
+      <c r="AC9">
+        <v>2020</v>
+      </c>
+      <c r="AD9">
+        <v>8</v>
+      </c>
+      <c r="AE9">
+        <v>2</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:8, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -944,8 +1093,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:9, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB10">
+        <v>4</v>
+      </c>
+      <c r="AC10">
+        <v>2020</v>
+      </c>
+      <c r="AD10">
+        <v>9</v>
+      </c>
+      <c r="AE10">
+        <v>2</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:9, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1</v>
       </c>
@@ -994,8 +1159,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:10, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB11">
+        <v>4</v>
+      </c>
+      <c r="AC11">
+        <v>2020</v>
+      </c>
+      <c r="AD11">
+        <v>10</v>
+      </c>
+      <c r="AE11">
+        <v>2</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:10, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1</v>
       </c>
@@ -1044,8 +1225,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:11, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB12">
+        <v>4</v>
+      </c>
+      <c r="AC12">
+        <v>2020</v>
+      </c>
+      <c r="AD12">
+        <v>11</v>
+      </c>
+      <c r="AE12">
+        <v>2</v>
+      </c>
+      <c r="AF12" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:11, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1094,8 +1291,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:12, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB13">
+        <v>4</v>
+      </c>
+      <c r="AC13">
+        <v>2020</v>
+      </c>
+      <c r="AD13">
+        <v>12</v>
+      </c>
+      <c r="AE13">
+        <v>3</v>
+      </c>
+      <c r="AF13" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:12, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1</v>
       </c>
@@ -1144,8 +1357,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:13, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB14">
+        <v>4</v>
+      </c>
+      <c r="AC14">
+        <v>2020</v>
+      </c>
+      <c r="AD14">
+        <v>13</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AF14" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:13, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1</v>
       </c>
@@ -1194,8 +1423,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:14, week_id:2, "last_month": false},</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AB15">
+        <v>4</v>
+      </c>
+      <c r="AC15">
+        <v>2020</v>
+      </c>
+      <c r="AD15">
+        <v>14</v>
+      </c>
+      <c r="AE15">
+        <v>3</v>
+      </c>
+      <c r="AF15" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:14, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -1244,8 +1489,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:15, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB16">
+        <v>4</v>
+      </c>
+      <c r="AC16">
+        <v>2020</v>
+      </c>
+      <c r="AD16">
+        <v>15</v>
+      </c>
+      <c r="AE16">
+        <v>3</v>
+      </c>
+      <c r="AF16" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:15, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1294,8 +1555,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:16, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB17">
+        <v>4</v>
+      </c>
+      <c r="AC17">
+        <v>2020</v>
+      </c>
+      <c r="AD17">
+        <v>16</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AF17" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:16, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -1344,8 +1621,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:17, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB18">
+        <v>4</v>
+      </c>
+      <c r="AC18">
+        <v>2020</v>
+      </c>
+      <c r="AD18">
+        <v>17</v>
+      </c>
+      <c r="AE18">
+        <v>3</v>
+      </c>
+      <c r="AF18" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:17, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1394,8 +1687,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:18, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB19">
+        <v>4</v>
+      </c>
+      <c r="AC19">
+        <v>2020</v>
+      </c>
+      <c r="AD19">
+        <v>18</v>
+      </c>
+      <c r="AE19">
+        <v>3</v>
+      </c>
+      <c r="AF19" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:18, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1</v>
       </c>
@@ -1444,8 +1753,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:19, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB20">
+        <v>4</v>
+      </c>
+      <c r="AC20">
+        <v>2020</v>
+      </c>
+      <c r="AD20">
+        <v>19</v>
+      </c>
+      <c r="AE20">
+        <v>4</v>
+      </c>
+      <c r="AF20" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:19, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1494,8 +1819,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:20, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB21">
+        <v>4</v>
+      </c>
+      <c r="AC21">
+        <v>2020</v>
+      </c>
+      <c r="AD21">
+        <v>20</v>
+      </c>
+      <c r="AE21">
+        <v>4</v>
+      </c>
+      <c r="AF21" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:20, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1</v>
       </c>
@@ -1544,8 +1885,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:21, week_id:3, "last_month": false},</v>
       </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB22">
+        <v>4</v>
+      </c>
+      <c r="AC22">
+        <v>2020</v>
+      </c>
+      <c r="AD22">
+        <v>21</v>
+      </c>
+      <c r="AE22">
+        <v>4</v>
+      </c>
+      <c r="AF22" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:21, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -1594,8 +1951,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:22, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB23">
+        <v>4</v>
+      </c>
+      <c r="AC23">
+        <v>2020</v>
+      </c>
+      <c r="AD23">
+        <v>22</v>
+      </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:22, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -1644,8 +2017,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:23, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB24">
+        <v>4</v>
+      </c>
+      <c r="AC24">
+        <v>2020</v>
+      </c>
+      <c r="AD24">
+        <v>23</v>
+      </c>
+      <c r="AE24">
+        <v>4</v>
+      </c>
+      <c r="AF24" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:23, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -1694,8 +2083,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:24, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB25">
+        <v>4</v>
+      </c>
+      <c r="AC25">
+        <v>2020</v>
+      </c>
+      <c r="AD25">
+        <v>24</v>
+      </c>
+      <c r="AE25">
+        <v>4</v>
+      </c>
+      <c r="AF25" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:24, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -1744,8 +2149,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:25, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB26">
+        <v>4</v>
+      </c>
+      <c r="AC26">
+        <v>2020</v>
+      </c>
+      <c r="AD26">
+        <v>25</v>
+      </c>
+      <c r="AE26">
+        <v>4</v>
+      </c>
+      <c r="AF26" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:25, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1</v>
       </c>
@@ -1794,8 +2215,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:26, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB27">
+        <v>4</v>
+      </c>
+      <c r="AC27">
+        <v>2020</v>
+      </c>
+      <c r="AD27">
+        <v>26</v>
+      </c>
+      <c r="AE27">
+        <v>5</v>
+      </c>
+      <c r="AF27" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:26, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1844,8 +2281,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:27, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB28">
+        <v>4</v>
+      </c>
+      <c r="AC28">
+        <v>2020</v>
+      </c>
+      <c r="AD28">
+        <v>27</v>
+      </c>
+      <c r="AE28">
+        <v>5</v>
+      </c>
+      <c r="AF28" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:27, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1894,8 +2347,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:28, week_id:4, "last_month": false},</v>
       </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB29">
+        <v>4</v>
+      </c>
+      <c r="AC29">
+        <v>2020</v>
+      </c>
+      <c r="AD29">
+        <v>28</v>
+      </c>
+      <c r="AE29">
+        <v>5</v>
+      </c>
+      <c r="AF29" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:28, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -1944,8 +2413,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:29, week_id:5, "last_month": false},</v>
       </c>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB30">
+        <v>4</v>
+      </c>
+      <c r="AC30">
+        <v>2020</v>
+      </c>
+      <c r="AD30">
+        <v>29</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:29, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1</v>
       </c>
@@ -1978,8 +2463,24 @@
         <f t="shared" si="2"/>
         <v>{month_id:3, year:"2020", day:30, week_id:5, "last_month": false},</v>
       </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="AB31">
+        <v>4</v>
+      </c>
+      <c r="AC31">
+        <v>2020</v>
+      </c>
+      <c r="AD31">
+        <v>30</v>
+      </c>
+      <c r="AE31">
+        <v>5</v>
+      </c>
+      <c r="AF31" t="str">
+        <f t="shared" si="3"/>
+        <v>{month_id:4, year:"2020", day:30, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -2013,11 +2514,1059 @@
         <v>{month_id:3, year:"2020", day:31, week_id:5, "last_month": false},</v>
       </c>
     </row>
+    <row r="35" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="3"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>5</v>
+      </c>
+      <c r="B37">
+        <v>2020</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="str">
+        <f>"{month_id:" &amp; A37 &amp; ", year:""" &amp;B37&amp;""", day:" &amp; C37 &amp; ", week_id:" &amp; D37 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:5, year:"2020", day:1, week_id:1, "last_month": false},</v>
+      </c>
+      <c r="J37">
+        <v>6</v>
+      </c>
+      <c r="K37">
+        <v>2020</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="N37" t="str">
+        <f>"{month_id:" &amp; J37 &amp; ", year:""" &amp;K37&amp;""", day:" &amp; L37 &amp; ", week_id:" &amp; M37 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:6, year:"2020", day:1, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>5</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38">
+        <v>2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="str">
+        <f t="shared" ref="E38:E66" si="4">"{month_id:" &amp; A38 &amp; ", year:""" &amp;B38&amp;""", day:" &amp; C38 &amp; ", week_id:" &amp; D38 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:5, year:"2020", day:2, week_id:1, "last_month": false},</v>
+      </c>
+      <c r="J38">
+        <v>6</v>
+      </c>
+      <c r="K38">
+        <v>2020</v>
+      </c>
+      <c r="L38">
+        <v>2</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" ref="N38:N66" si="5">"{month_id:" &amp; J38 &amp; ", year:""" &amp;K38&amp;""", day:" &amp; L38 &amp; ", week_id:" &amp; M38 &amp; ", ""last_month"": false},"</f>
+        <v>{month_id:6, year:"2020", day:2, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>5</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:3, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J39">
+        <v>6</v>
+      </c>
+      <c r="K39">
+        <v>2020</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+      <c r="M39">
+        <v>1</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:3, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>5</v>
+      </c>
+      <c r="B40">
+        <v>2020</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>2</v>
+      </c>
+      <c r="E40" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:4, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J40">
+        <v>6</v>
+      </c>
+      <c r="K40">
+        <v>2020</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:4, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41">
+        <v>2020</v>
+      </c>
+      <c r="C41">
+        <v>5</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:5, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J41">
+        <v>6</v>
+      </c>
+      <c r="K41">
+        <v>2020</v>
+      </c>
+      <c r="L41">
+        <v>5</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:5, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>5</v>
+      </c>
+      <c r="B42">
+        <v>2020</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:6, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J42">
+        <v>6</v>
+      </c>
+      <c r="K42">
+        <v>2020</v>
+      </c>
+      <c r="L42">
+        <v>6</v>
+      </c>
+      <c r="M42">
+        <v>1</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:6, week_id:1, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43">
+        <v>2020</v>
+      </c>
+      <c r="C43">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:7, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J43">
+        <v>6</v>
+      </c>
+      <c r="K43">
+        <v>2020</v>
+      </c>
+      <c r="L43">
+        <v>7</v>
+      </c>
+      <c r="M43">
+        <v>2</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:7, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>2020</v>
+      </c>
+      <c r="C44">
+        <v>8</v>
+      </c>
+      <c r="D44">
+        <v>2</v>
+      </c>
+      <c r="E44" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:8, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J44">
+        <v>6</v>
+      </c>
+      <c r="K44">
+        <v>2020</v>
+      </c>
+      <c r="L44">
+        <v>8</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:8, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>5</v>
+      </c>
+      <c r="B45">
+        <v>2020</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <v>2</v>
+      </c>
+      <c r="E45" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:9, week_id:2, "last_month": false},</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>2020</v>
+      </c>
+      <c r="L45">
+        <v>9</v>
+      </c>
+      <c r="M45">
+        <v>2</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:9, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5</v>
+      </c>
+      <c r="B46">
+        <v>2020</v>
+      </c>
+      <c r="C46">
+        <v>10</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:10, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J46">
+        <v>6</v>
+      </c>
+      <c r="K46">
+        <v>2020</v>
+      </c>
+      <c r="L46">
+        <v>10</v>
+      </c>
+      <c r="M46">
+        <v>2</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:10, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5</v>
+      </c>
+      <c r="B47">
+        <v>2020</v>
+      </c>
+      <c r="C47">
+        <v>11</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:11, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J47">
+        <v>6</v>
+      </c>
+      <c r="K47">
+        <v>2020</v>
+      </c>
+      <c r="L47">
+        <v>11</v>
+      </c>
+      <c r="M47">
+        <v>2</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:11, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>5</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48">
+        <v>12</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:12, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J48">
+        <v>6</v>
+      </c>
+      <c r="K48">
+        <v>2020</v>
+      </c>
+      <c r="L48">
+        <v>12</v>
+      </c>
+      <c r="M48">
+        <v>2</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:12, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49">
+        <v>2020</v>
+      </c>
+      <c r="C49">
+        <v>13</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:13, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J49">
+        <v>6</v>
+      </c>
+      <c r="K49">
+        <v>2020</v>
+      </c>
+      <c r="L49">
+        <v>13</v>
+      </c>
+      <c r="M49">
+        <v>2</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:13, week_id:2, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>5</v>
+      </c>
+      <c r="B50">
+        <v>2020</v>
+      </c>
+      <c r="C50">
+        <v>14</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:14, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J50">
+        <v>6</v>
+      </c>
+      <c r="K50">
+        <v>2020</v>
+      </c>
+      <c r="L50">
+        <v>14</v>
+      </c>
+      <c r="M50">
+        <v>3</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:14, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>5</v>
+      </c>
+      <c r="B51">
+        <v>2020</v>
+      </c>
+      <c r="C51">
+        <v>15</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:15, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J51">
+        <v>6</v>
+      </c>
+      <c r="K51">
+        <v>2020</v>
+      </c>
+      <c r="L51">
+        <v>15</v>
+      </c>
+      <c r="M51">
+        <v>3</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:15, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52">
+        <v>2020</v>
+      </c>
+      <c r="C52">
+        <v>16</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:16, week_id:3, "last_month": false},</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>2020</v>
+      </c>
+      <c r="L52">
+        <v>16</v>
+      </c>
+      <c r="M52">
+        <v>3</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:16, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5</v>
+      </c>
+      <c r="B53">
+        <v>2020</v>
+      </c>
+      <c r="C53">
+        <v>17</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:17, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J53">
+        <v>6</v>
+      </c>
+      <c r="K53">
+        <v>2020</v>
+      </c>
+      <c r="L53">
+        <v>17</v>
+      </c>
+      <c r="M53">
+        <v>3</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:17, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5</v>
+      </c>
+      <c r="B54">
+        <v>2020</v>
+      </c>
+      <c r="C54">
+        <v>18</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:18, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J54">
+        <v>6</v>
+      </c>
+      <c r="K54">
+        <v>2020</v>
+      </c>
+      <c r="L54">
+        <v>18</v>
+      </c>
+      <c r="M54">
+        <v>3</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:18, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>2020</v>
+      </c>
+      <c r="C55">
+        <v>19</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:19, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J55">
+        <v>6</v>
+      </c>
+      <c r="K55">
+        <v>2020</v>
+      </c>
+      <c r="L55">
+        <v>19</v>
+      </c>
+      <c r="M55">
+        <v>3</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:19, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>2020</v>
+      </c>
+      <c r="C56">
+        <v>20</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:20, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J56">
+        <v>6</v>
+      </c>
+      <c r="K56">
+        <v>2020</v>
+      </c>
+      <c r="L56">
+        <v>20</v>
+      </c>
+      <c r="M56">
+        <v>3</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:20, week_id:3, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>2020</v>
+      </c>
+      <c r="C57">
+        <v>21</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:21, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J57">
+        <v>6</v>
+      </c>
+      <c r="K57">
+        <v>2020</v>
+      </c>
+      <c r="L57">
+        <v>21</v>
+      </c>
+      <c r="M57">
+        <v>4</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:21, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>2020</v>
+      </c>
+      <c r="C58">
+        <v>22</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:22, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J58">
+        <v>6</v>
+      </c>
+      <c r="K58">
+        <v>2020</v>
+      </c>
+      <c r="L58">
+        <v>22</v>
+      </c>
+      <c r="M58">
+        <v>4</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:22, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>2020</v>
+      </c>
+      <c r="C59">
+        <v>23</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:23, week_id:4, "last_month": false},</v>
+      </c>
+      <c r="J59">
+        <v>6</v>
+      </c>
+      <c r="K59">
+        <v>2020</v>
+      </c>
+      <c r="L59">
+        <v>23</v>
+      </c>
+      <c r="M59">
+        <v>4</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:23, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5</v>
+      </c>
+      <c r="B60">
+        <v>2020</v>
+      </c>
+      <c r="C60">
+        <v>24</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:24, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J60">
+        <v>6</v>
+      </c>
+      <c r="K60">
+        <v>2020</v>
+      </c>
+      <c r="L60">
+        <v>24</v>
+      </c>
+      <c r="M60">
+        <v>4</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:24, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61">
+        <v>2020</v>
+      </c>
+      <c r="C61">
+        <v>25</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:25, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J61">
+        <v>6</v>
+      </c>
+      <c r="K61">
+        <v>2020</v>
+      </c>
+      <c r="L61">
+        <v>25</v>
+      </c>
+      <c r="M61">
+        <v>4</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:25, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62">
+        <v>2020</v>
+      </c>
+      <c r="C62">
+        <v>26</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:26, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J62">
+        <v>6</v>
+      </c>
+      <c r="K62">
+        <v>2020</v>
+      </c>
+      <c r="L62">
+        <v>26</v>
+      </c>
+      <c r="M62">
+        <v>4</v>
+      </c>
+      <c r="N62" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:26, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63">
+        <v>2020</v>
+      </c>
+      <c r="C63">
+        <v>27</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:27, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J63">
+        <v>6</v>
+      </c>
+      <c r="K63">
+        <v>2020</v>
+      </c>
+      <c r="L63">
+        <v>27</v>
+      </c>
+      <c r="M63">
+        <v>4</v>
+      </c>
+      <c r="N63" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:27, week_id:4, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5</v>
+      </c>
+      <c r="B64">
+        <v>2020</v>
+      </c>
+      <c r="C64">
+        <v>28</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:28, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J64">
+        <v>6</v>
+      </c>
+      <c r="K64">
+        <v>2020</v>
+      </c>
+      <c r="L64">
+        <v>28</v>
+      </c>
+      <c r="M64">
+        <v>5</v>
+      </c>
+      <c r="N64" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:28, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>5</v>
+      </c>
+      <c r="B65">
+        <v>2020</v>
+      </c>
+      <c r="C65">
+        <v>29</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:29, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J65">
+        <v>6</v>
+      </c>
+      <c r="K65">
+        <v>2020</v>
+      </c>
+      <c r="L65">
+        <v>29</v>
+      </c>
+      <c r="M65">
+        <v>5</v>
+      </c>
+      <c r="N65" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:29, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>5</v>
+      </c>
+      <c r="B66">
+        <v>2020</v>
+      </c>
+      <c r="C66">
+        <v>30</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" t="str">
+        <f t="shared" si="4"/>
+        <v>{month_id:5, year:"2020", day:30, week_id:5, "last_month": false},</v>
+      </c>
+      <c r="J66">
+        <v>6</v>
+      </c>
+      <c r="K66">
+        <v>2020</v>
+      </c>
+      <c r="L66">
+        <v>30</v>
+      </c>
+      <c r="M66">
+        <v>5</v>
+      </c>
+      <c r="N66" t="str">
+        <f t="shared" si="5"/>
+        <v>{month_id:6, year:"2020", day:30, week_id:5, "last_month": false},</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="6">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J1:R1"/>
     <mergeCell ref="S1:AA1"/>
+    <mergeCell ref="AB1:AK1"/>
+    <mergeCell ref="A36:I36"/>
+    <mergeCell ref="J36:R36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
